--- a/data/sheets/Uranium.xlsx
+++ b/data/sheets/Uranium.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C206FD-5D43-4C33-BC4C-38C400F8ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA60C2A-D0E8-4EAF-9EF1-2572C30F14C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B8A2D46-C6EF-469F-AEE4-2F5D5EEA927C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3D66F9-E6BF-4D4F-AE2A-6DB74FF59473}"/>
   </bookViews>
   <sheets>
-    <sheet name="Uranium" sheetId="2" r:id="rId1"/>
+    <sheet name="Uranium" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -590,14 +589,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -935,300 +927,298 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{F3D71602-F621-4E09-84BF-33AC081FFDF2}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{1EBE8DB9-30A9-416C-AB68-E9636E0EB50F}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1706,7 +1696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0877484-6C93-4F2D-B815-E31D6FAEB04A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C7E8ED-BD0C-4ED0-9B78-25F551FBD6F2}">
   <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1715,7 +1705,7 @@
       <selection pane="bottomLeft" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="2" max="7" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -1743,7 +1733,7 @@
     <col min="36" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1819,7 @@
       <c r="AL1" s="11"/>
       <c r="AM1" s="11"/>
     </row>
-    <row r="2" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1910,7 +1900,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>37</v>
       </c>
@@ -1971,7 +1961,7 @@
       <c r="AJ3" s="42"/>
       <c r="AK3" s="43"/>
     </row>
-    <row r="4" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="17"/>
       <c r="M4" s="33"/>
       <c r="N4" s="35"/>
@@ -1998,7 +1988,7 @@
       <c r="AJ4" s="42"/>
       <c r="AK4" s="43"/>
     </row>
-    <row r="5" spans="1:39" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="45" t="s">
         <v>57</v>
       </c>
@@ -2029,7 +2019,7 @@
       <c r="AJ5" s="42"/>
       <c r="AK5" s="42"/>
     </row>
-    <row r="6" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2162,7 +2152,7 @@
       </c>
       <c r="AK6" s="42"/>
     </row>
-    <row r="7" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -2294,7 +2284,7 @@
       </c>
       <c r="AK7" s="42"/>
     </row>
-    <row r="8" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -2426,7 +2416,7 @@
       </c>
       <c r="AK8" s="42"/>
     </row>
-    <row r="9" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -2558,7 +2548,7 @@
       </c>
       <c r="AK9" s="42"/>
     </row>
-    <row r="10" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2690,7 +2680,7 @@
       </c>
       <c r="AK10" s="42"/>
     </row>
-    <row r="11" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -2822,7 +2812,7 @@
       </c>
       <c r="AK11" s="42"/>
     </row>
-    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L12, A$3)</f>
         <v>#NAME?</v>
@@ -2954,7 +2944,7 @@
       </c>
       <c r="AK12" s="42"/>
     </row>
-    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L13, A$3)</f>
         <v>#NAME?</v>
@@ -3200,7 +3190,7 @@
       <c r="AJ15" s="42"/>
       <c r="AK15" s="42"/>
     </row>
-    <row r="16" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L16, A$3)</f>
         <v>#NAME?</v>
@@ -3314,7 +3304,7 @@
       </c>
       <c r="AK16" s="42"/>
     </row>
-    <row r="17" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L17, A$3)</f>
         <v>#NAME?</v>
@@ -3428,7 +3418,7 @@
       </c>
       <c r="AK17" s="42"/>
     </row>
-    <row r="18" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L18, A$3)</f>
         <v>#NAME?</v>
@@ -3542,7 +3532,7 @@
       </c>
       <c r="AK18" s="42"/>
     </row>
-    <row r="19" spans="1:37" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="13.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L19, A$3)</f>
         <v>#NAME?</v>
@@ -3656,7 +3646,7 @@
       </c>
       <c r="AK19" s="42"/>
     </row>
-    <row r="20" spans="1:37" ht="14.4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="13.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L20, A$3)</f>
         <v>#NAME?</v>
@@ -3770,7 +3760,7 @@
       </c>
       <c r="AK20" s="42"/>
     </row>
-    <row r="21" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L21, A$3)</f>
         <v>#NAME?</v>
@@ -3884,7 +3874,7 @@
       </c>
       <c r="AK21" s="42"/>
     </row>
-    <row r="22" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L22, A$3)</f>
         <v>#NAME?</v>
@@ -3998,7 +3988,7 @@
       </c>
       <c r="AK22" s="42"/>
     </row>
-    <row r="23" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L23, A$3)</f>
         <v>#NAME?</v>
@@ -4112,7 +4102,7 @@
       </c>
       <c r="AK23" s="42"/>
     </row>
-    <row r="24" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L24, A$3)</f>
         <v>#NAME?</v>
@@ -4226,7 +4216,7 @@
       </c>
       <c r="AK24" s="42"/>
     </row>
-    <row r="25" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L25, A$3)</f>
         <v>#NAME?</v>
@@ -4340,7 +4330,7 @@
       </c>
       <c r="AK25" s="42"/>
     </row>
-    <row r="26" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L26, A$3)</f>
         <v>#NAME?</v>
@@ -4454,7 +4444,7 @@
       </c>
       <c r="AK26" s="42"/>
     </row>
-    <row r="27" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L27, A$3)</f>
         <v>#NAME?</v>
@@ -4568,7 +4558,7 @@
       </c>
       <c r="AK27" s="42"/>
     </row>
-    <row r="28" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L28, A$3)</f>
         <v>#NAME?</v>
@@ -4682,7 +4672,7 @@
       </c>
       <c r="AK28" s="42"/>
     </row>
-    <row r="29" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L29, A$3)</f>
         <v>#NAME?</v>
@@ -4796,7 +4786,7 @@
       </c>
       <c r="AK29" s="42"/>
     </row>
-    <row r="30" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L30, A$3)</f>
         <v>#NAME?</v>
@@ -4910,7 +4900,7 @@
       </c>
       <c r="AK30" s="91"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
       <c r="J31" s="80"/>
@@ -4951,175 +4941,175 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="54"/>
       <c r="I33" s="54"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="54"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45" s="54"/>
       <c r="I45" s="54"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" s="54"/>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" s="54"/>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="54"/>
       <c r="I72" s="54"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="54"/>
       <c r="I73" s="54"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="54"/>
       <c r="I74" s="54"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
     </row>
